--- a/Caller Accounts/Event Driven Caller - Accounts.xlsx
+++ b/Caller Accounts/Event Driven Caller - Accounts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uipath-my.sharepoint.com/personal/catalin_adascalitei_uipath_com/Documents/01 Projects/Attended Automation/Module 5/Lesson 1/Resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlie\OneDrive\Documents\UiPath Advance\CustomerServiceCentral\Caller Accounts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{388F4767-2D18-4862-BD74-A5F9099E1DFC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2ECAD9-ED2C-41D3-8F6A-9ABE22D61CDB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,15 +21,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -43,18 +34,36 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Validation on all except middle name: Is not blank.</t>
+        </r>
       </text>
     </comment>
     <comment ref="E1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Validation: phone number format</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -495,7 +504,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,21 +659,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B47328280439544AB5C41C56297158F8" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="37379e9f2bd6c2c1cc3fc4189b4f5c35">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="825ee06b-ca9e-4fae-a309-081319cc5c11" xmlns:ns3="328982d7-d2af-46e2-9ab4-9b069b3e82d0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7e8b561af0e8305711e3fb669b867239" ns2:_="" ns3:_="">
     <xsd:import namespace="825ee06b-ca9e-4fae-a309-081319cc5c11"/>
@@ -875,32 +869,22 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD0C6A1D-D475-46B5-8954-CC39120F0E74}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{795B12D8-B225-41DA-AA81-DD88C859AEE2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="825ee06b-ca9e-4fae-a309-081319cc5c11"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="328982d7-d2af-46e2-9ab4-9b069b3e82d0"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD631982-C284-447D-B04A-3278ECC23181}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -917,4 +901,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{795B12D8-B225-41DA-AA81-DD88C859AEE2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="825ee06b-ca9e-4fae-a309-081319cc5c11"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="328982d7-d2af-46e2-9ab4-9b069b3e82d0"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD0C6A1D-D475-46B5-8954-CC39120F0E74}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>